--- a/PRODUCTOS/excel/categories_sections.xlsx
+++ b/PRODUCTOS/excel/categories_sections.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tomtomtom\work\sanitarios-villa-ariza\web\sanitarios-villa-ariza\PRODUCTOS\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13997704-1C50-4029-9A75-3B344E6CB9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="bombas"/>
-    <sheet r:id="rId2" sheetId="2" name="tanques"/>
-    <sheet r:id="rId3" sheetId="3" name="termotanques"/>
-    <sheet r:id="rId4" sheetId="4" name="griferías"/>
-    <sheet r:id="rId5" sheetId="5" name="loza"/>
-    <sheet r:id="rId6" sheetId="6" name="vanitorys(proximamente)"/>
-    <sheet r:id="rId7" sheetId="7" name="sistemas"/>
+    <sheet name="bombas" sheetId="1" r:id="rId1"/>
+    <sheet name="tanques" sheetId="2" r:id="rId2"/>
+    <sheet name="termotanques" sheetId="3" r:id="rId3"/>
+    <sheet name="griferías" sheetId="4" r:id="rId4"/>
+    <sheet name="loza" sheetId="5" r:id="rId5"/>
+    <sheet name="sistemas" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
   <si>
     <t>id</t>
   </si>
@@ -67,12 +72,6 @@
     <t>src/img/categories_sistemas_gas.png</t>
   </si>
   <si>
-    <t>Ferrum</t>
-  </si>
-  <si>
-    <t>src/img/categories_lozas_ferrum.png</t>
-  </si>
-  <si>
     <t>Duchas / Bañeras</t>
   </si>
   <si>
@@ -215,14 +214,37 @@
   </si>
   <si>
     <t>src/img/categories_bombas_otros.png</t>
+  </si>
+  <si>
+    <t>Loza santaria</t>
+  </si>
+  <si>
+    <t>Vanitorys</t>
+  </si>
+  <si>
+    <t>Lavatorios de apoyar</t>
+  </si>
+  <si>
+    <t>Bañeras</t>
+  </si>
+  <si>
+    <t>src/img/categories_lozas_sanitaria.png</t>
+  </si>
+  <si>
+    <t>src/img/categories_lozas_vanitorys.png</t>
+  </si>
+  <si>
+    <t>src/img/categories_lozas_lavatorios.png</t>
+  </si>
+  <si>
+    <t>src/img/categories_lozas_bañeras.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +277,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -265,37 +295,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffc000"/>
+        <fgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF70ad47"/>
+        <fgColor rgb="FF70AD47"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5b9bd5"/>
+        <fgColor rgb="FF5B9BD5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffd966"/>
+        <fgColor rgb="FFFFD966"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFa9d08e"/>
+        <fgColor rgb="FFA9D08E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9bc2e6"/>
+        <fgColor rgb="FF9BC2E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffe699"/>
+        <fgColor rgb="FFFFE699"/>
       </patternFill>
     </fill>
   </fills>
@@ -312,7 +342,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -342,10 +372,10 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -360,7 +390,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -372,7 +402,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -409,7 +439,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -436,10 +466,10 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -451,7 +481,7 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -466,13 +496,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -481,7 +511,7 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -496,7 +526,7 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -520,22 +550,22 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,7 +574,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -574,10 +604,10 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -592,7 +622,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -604,13 +634,13 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,13 +649,13 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,10 +667,10 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,19 +685,19 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -678,233 +708,235 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="76">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="2" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="4" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="4" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="21" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="2" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="22" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="2" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="2" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="2" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -915,10 +947,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -956,71 +988,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1048,7 +1080,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1071,11 +1103,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1084,13 +1116,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1100,7 +1132,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1109,7 +1141,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1118,7 +1150,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1126,10 +1158,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1194,7 +1226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1202,77 +1234,77 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="38" width="5.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="39" width="44.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="5.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="68">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="55">
         <v>0</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="45">
+        <v>1</v>
+      </c>
+      <c r="B3" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C3" s="29" t="s">
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="58">
-        <v>1</v>
-      </c>
-      <c r="B3" s="70" t="s">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="55">
+        <v>2</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="33" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45">
+        <v>3</v>
+      </c>
+      <c r="B5" s="57" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="68">
-        <v>2</v>
-      </c>
-      <c r="B4" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="33" t="s">
+      <c r="C5" s="29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="58">
-        <v>3</v>
-      </c>
-      <c r="B5" s="70" t="s">
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52">
+        <v>4</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="59" t="s">
         <v>62</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="65">
-        <v>4</v>
-      </c>
-      <c r="B6" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="72" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1281,7 +1313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1289,116 +1321,114 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="19" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="19" width="44.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.5703125" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="55">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42">
         <v>0</v>
       </c>
-      <c r="B2" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="57" t="s">
-        <v>46</v>
+      <c r="B2" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>44</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="58">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="45">
         <v>1</v>
       </c>
-      <c r="B3" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>48</v>
+      <c r="B3" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>46</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="58">
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45">
         <v>2</v>
       </c>
-      <c r="B4" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>50</v>
+      <c r="B4" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>48</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="61">
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="48">
         <v>3</v>
       </c>
-      <c r="B5" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="63" t="s">
-        <v>52</v>
+      <c r="B5" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>50</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="58">
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="45">
         <v>4</v>
       </c>
-      <c r="B6" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>54</v>
+      <c r="B6" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>52</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="65">
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="52">
         <v>5</v>
       </c>
-      <c r="B7" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>56</v>
+      <c r="B7" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>54</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="27"/>
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
       <c r="D8" s="12"/>
@@ -1411,63 +1441,65 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="52" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="19" width="10.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="19" width="43.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="43">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60">
         <v>0</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="63">
+        <v>1</v>
+      </c>
+      <c r="B3" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C3" s="65" t="s">
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="46">
-        <v>1</v>
-      </c>
-      <c r="B3" s="47" t="s">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="66">
+        <v>2</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C4" s="68" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="49">
-        <v>2</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1476,7 +1508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1484,143 +1516,143 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="38" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="39" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="39" width="48.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.42578125" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="31">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <v>2</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C3" s="29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="34">
-        <v>2</v>
-      </c>
-      <c r="B3" s="35" t="s">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>3</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C4" s="29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="34">
-        <v>3</v>
-      </c>
-      <c r="B4" s="35" t="s">
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>4</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C5" s="29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="34">
-        <v>4</v>
-      </c>
-      <c r="B5" s="35" t="s">
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>5</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C6" s="29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="34">
-        <v>5</v>
-      </c>
-      <c r="B6" s="35" t="s">
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>6</v>
+      </c>
+      <c r="B7" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C7" s="29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="34">
-        <v>6</v>
-      </c>
-      <c r="B7" s="35" t="s">
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>7</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C8" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="34">
-        <v>7</v>
-      </c>
-      <c r="B8" s="35" t="s">
+    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>8</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C9" s="29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="34">
-        <v>8</v>
-      </c>
-      <c r="B9" s="35" t="s">
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>9</v>
+      </c>
+      <c r="B10" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C10" s="29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="34">
-        <v>9</v>
-      </c>
-      <c r="B10" s="35" t="s">
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>10</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C11" s="29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="34">
-        <v>10</v>
-      </c>
-      <c r="B11" s="35" t="s">
+    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="32">
+        <v>11</v>
+      </c>
+      <c r="B12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C12" s="29" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="36">
-        <v>11</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1629,105 +1661,105 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="28" width="7.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="19" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="19" width="43.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="7" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="72" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="24">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="73">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
+      <c r="B2" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="75" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="73">
+        <v>1</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="73">
+        <v>2</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="73">
+        <v>3</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="69"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="18" width="43.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.5703125" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1741,7 +1773,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1755,7 +1787,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1769,7 +1801,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1783,7 +1815,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1797,7 +1829,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1811,7 +1843,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>6</v>
       </c>

--- a/PRODUCTOS/excel/categories_sections.xlsx
+++ b/PRODUCTOS/excel/categories_sections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tomtomtom\work\sanitarios-villa-ariza\web\sanitarios-villa-ariza\PRODUCTOS\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13997704-1C50-4029-9A75-3B344E6CB9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C8DFB5-BF94-48BE-A87A-46477C200DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1305" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bombas" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
   <si>
     <t>id</t>
   </si>
@@ -34,12 +34,6 @@
   </si>
   <si>
     <t>img</t>
-  </si>
-  <si>
-    <t>Galvanizadas</t>
-  </si>
-  <si>
-    <t>src/img/categories_sistemas_galvanizadas.png</t>
   </si>
   <si>
     <t>Desagüe</t>
@@ -708,7 +702,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -725,15 +719,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -746,9 +731,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1236,75 +1218,75 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55">
+      <c r="A2" s="51">
         <v>0</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="41">
+        <v>1</v>
+      </c>
+      <c r="B3" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C3" s="25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45">
-        <v>1</v>
-      </c>
-      <c r="B3" s="57" t="s">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51">
+        <v>2</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="29" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41">
+        <v>3</v>
+      </c>
+      <c r="B5" s="53" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55">
-        <v>2</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="29" t="s">
+      <c r="C5" s="25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45">
-        <v>3</v>
-      </c>
-      <c r="B5" s="57" t="s">
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="48">
+        <v>4</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="55" t="s">
         <v>60</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52">
-        <v>4</v>
-      </c>
-      <c r="B6" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1323,117 +1305,117 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42">
+      <c r="A2" s="38">
         <v>0</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="41">
+        <v>1</v>
+      </c>
+      <c r="B3" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C3" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45">
-        <v>1</v>
-      </c>
-      <c r="B3" s="46" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="41">
+        <v>2</v>
+      </c>
+      <c r="B4" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C4" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45">
-        <v>2</v>
-      </c>
-      <c r="B4" s="46" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="44">
+        <v>3</v>
+      </c>
+      <c r="B5" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C5" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48">
-        <v>3</v>
-      </c>
-      <c r="B5" s="49" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="41">
+        <v>4</v>
+      </c>
+      <c r="B6" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C6" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45">
-        <v>4</v>
-      </c>
-      <c r="B6" s="46" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48">
+        <v>5</v>
+      </c>
+      <c r="B7" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C7" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52">
-        <v>5</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1453,53 +1435,53 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60">
+      <c r="A2" s="56">
         <v>0</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="59">
+        <v>1</v>
+      </c>
+      <c r="B3" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C3" s="61" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63">
-        <v>1</v>
-      </c>
-      <c r="B3" s="64" t="s">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="62">
+        <v>2</v>
+      </c>
+      <c r="B4" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C4" s="64" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66">
-        <v>2</v>
-      </c>
-      <c r="B4" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="68" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1518,141 +1500,141 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.42578125" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C3" s="25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30">
-        <v>2</v>
-      </c>
-      <c r="B3" s="31" t="s">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C4" s="25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
-        <v>3</v>
-      </c>
-      <c r="B4" s="31" t="s">
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C5" s="25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30">
-        <v>4</v>
-      </c>
-      <c r="B5" s="31" t="s">
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C6" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
-        <v>5</v>
-      </c>
-      <c r="B6" s="31" t="s">
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C7" s="25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
-        <v>6</v>
-      </c>
-      <c r="B7" s="31" t="s">
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
+        <v>7</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C8" s="25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
-        <v>7</v>
-      </c>
-      <c r="B8" s="31" t="s">
+    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C9" s="25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
-        <v>8</v>
-      </c>
-      <c r="B9" s="31" t="s">
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C10" s="25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
-        <v>9</v>
-      </c>
-      <c r="B10" s="31" t="s">
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
+        <v>10</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C11" s="25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
-        <v>10</v>
-      </c>
-      <c r="B11" s="31" t="s">
+    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28">
+        <v>11</v>
+      </c>
+      <c r="B12" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C12" s="25" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
-        <v>11</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1673,68 +1655,68 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73">
+      <c r="A2" s="69">
         <v>0</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="69">
+        <v>1</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="69">
+        <v>2</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C4" s="71" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="73">
-        <v>1</v>
-      </c>
-      <c r="B3" s="74" t="s">
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="69">
+        <v>3</v>
+      </c>
+      <c r="B5" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C5" s="71" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="73">
-        <v>2</v>
-      </c>
-      <c r="B4" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="75" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="73">
-        <v>3</v>
-      </c>
-      <c r="B5" s="74" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="75" t="s">
-        <v>70</v>
-      </c>
-    </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="69"/>
+      <c r="B6" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1747,16 +1729,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1787,42 +1771,42 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="5"/>
@@ -1830,32 +1814,18 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
-        <v>6</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PRODUCTOS/excel/categories_sections.xlsx
+++ b/PRODUCTOS/excel/categories_sections.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tomtomtom\work\sanitarios-villa-ariza\web\sanitarios-villa-ariza\PRODUCTOS\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C8DFB5-BF94-48BE-A87A-46477C200DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37CE809-4DF6-488A-AC5E-6495DDA8C2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1305" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1305" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bombas" sheetId="1" r:id="rId1"/>
     <sheet name="tanques" sheetId="2" r:id="rId2"/>
     <sheet name="termotanques" sheetId="3" r:id="rId3"/>
     <sheet name="griferías" sheetId="4" r:id="rId4"/>
-    <sheet name="loza" sheetId="5" r:id="rId5"/>
+    <sheet name="baño" sheetId="5" r:id="rId5"/>
     <sheet name="sistemas" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -222,16 +222,16 @@
     <t>Bañeras</t>
   </si>
   <si>
-    <t>src/img/categories_lozas_sanitaria.png</t>
-  </si>
-  <si>
-    <t>src/img/categories_lozas_vanitorys.png</t>
-  </si>
-  <si>
-    <t>src/img/categories_lozas_lavatorios.png</t>
-  </si>
-  <si>
-    <t>src/img/categories_lozas_bañeras.png</t>
+    <t>src/img/categories_baño_loza.png</t>
+  </si>
+  <si>
+    <t>src/img/categories_baño_vanitorys.png</t>
+  </si>
+  <si>
+    <t>src/img/categories_baño_lavatorios.png</t>
+  </si>
+  <si>
+    <t>src/img/categories_baño_bañeras.png</t>
   </si>
 </sst>
 </file>
@@ -1649,8 +1649,8 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1731,7 +1731,7 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
